--- a/Documentación/Psp's/Axel/Clase Configuración/TimeInPhase.xlsx
+++ b/Documentación/Psp's/Axel/Clase Configuración/TimeInPhase.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A141CCD0-1F13-40FF-B9B8-05EFD26D0608}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{517C0BAA-8B7D-4AD4-BEDC-B87969EFDC65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="excel" sheetId="1" r:id="rId1"/>
+    <sheet name="excel(1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel" localSheetId="0">excel!$A$1:$E$27</definedName>
+    <definedName name="excel_1" localSheetId="0">'excel(1)'!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel.iqy" name="excel" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel(1).iqy" name="excel(1)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FProyecto%2FClaseConfiguraci%25C3%25B3n%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -93,7 +93,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:05 PM el 4/12/2018</t>
+    <t>Reporte generado a las 11:22 AM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Documentación/Psp's/Axel/Clase Configuración/TimeInPhase.xlsx
+++ b/Documentación/Psp's/Axel/Clase Configuración/TimeInPhase.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\Iphone_LauraBermúdez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{517C0BAA-8B7D-4AD4-BEDC-B87969EFDC65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B2AC75-0F5F-401D-BADA-97510FB066EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="excel(1)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel_1" localSheetId="0">'excel(1)'!$A$1:$E$27</definedName>
+    <definedName name="excel" localSheetId="0">excel!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel(1).iqy" name="excel(1)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel.iqy" name="excel" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FProyecto%2FClaseConfiguraci%25C3%25B3n%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -93,7 +93,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 11:22 AM el 5/12/2018</t>
+    <t>Reporte generado a las 01:33 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
